--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -202,6 +202,24 @@
   </si>
   <si>
     <t>Fawad</t>
+  </si>
+  <si>
+    <t>Taimoor</t>
+  </si>
+  <si>
+    <t>905-956-2182</t>
+  </si>
+  <si>
+    <t>Drishti Thakkar</t>
+  </si>
+  <si>
+    <t>drishti.thakkar@gmail.com</t>
+  </si>
+  <si>
+    <t>Port Credit Secondary</t>
+  </si>
+  <si>
+    <t>647-390-9063</t>
   </si>
 </sst>
 </file>
@@ -253,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,6 +283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -635,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,10 +925,15 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
@@ -989,6 +1013,23 @@
       </c>
       <c r="E26">
         <v>6474061810</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -657,7 +657,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,7 @@
         <v>65</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>647-390-9063</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -654,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1032,23 @@
         <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
     </row>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -222,7 +222,13 @@
     <t>647-390-9063</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Ujala Feroze</t>
+  </si>
+  <si>
+    <t>ujala.feroze@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>647-774-3042</t>
   </si>
 </sst>
 </file>
@@ -1040,16 +1046,13 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -229,13 +229,31 @@
   </si>
   <si>
     <t>647-774-3042</t>
+  </si>
+  <si>
+    <t>SANIA HAIDER</t>
+  </si>
+  <si>
+    <t>sania.haider@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>(647) 282-8452</t>
+  </si>
+  <si>
+    <t>afi_capk@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mississauga Secondary School</t>
+  </si>
+  <si>
+    <t>Sufyan Azam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +402,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DE17D"/>
+        <a:sysClr val="window" lastClr="78DC78"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -451,7 +469,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -486,7 +503,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,14 +678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -677,7 +693,7 @@
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -717,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -734,7 +750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -748,7 +764,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -763,7 +779,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -780,7 +796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -797,7 +813,7 @@
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -814,7 +830,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -829,7 +845,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -846,7 +862,7 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -863,7 +879,7 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -875,7 +891,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -892,7 +908,7 @@
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -909,31 +925,31 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -944,19 +960,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -973,7 +989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -985,7 +1001,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1002,7 +1018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1024,7 +1040,7 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -1041,7 +1057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -1053,6 +1069,34 @@
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>9054860203</v>
       </c>
     </row>
   </sheetData>
@@ -1064,31 +1108,32 @@
     <hyperlink ref="E6" r:id="rId5" display="tel:416-737-7706"/>
     <hyperlink ref="B25" r:id="rId6"/>
     <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B30" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -247,6 +247,25 @@
   </si>
   <si>
     <t>Sufyan Azam</t>
+  </si>
+  <si>
+    <t>raghavs613@gmail.com</t>
+  </si>
+  <si>
+    <t>karticsharma74@hotmail.com</t>
+  </si>
+  <si>
+    <t>905 913 1216</t>
+  </si>
+  <si>
+    <t>ranbir_singh66@yahoo.ca</t>
+  </si>
+  <si>
+    <t>9057949737 / 
+6476220641</t>
+  </si>
+  <si>
+    <t>munvir_pannu@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -679,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1097,6 +1116,35 @@
       </c>
       <c r="E30">
         <v>9054860203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>9059131216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,22 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="20780" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+  <si>
+    <t>SANIA HAIDER</t>
+  </si>
+  <si>
+    <t>sania.haider@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>(647) 282-8452</t>
+  </si>
+  <si>
+    <t>afi_capk@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mississauga Secondary School</t>
+  </si>
+  <si>
+    <t>Murrium Zaheer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>murriumcra09@gmail.com</t>
+  </si>
+  <si>
+    <t>UTM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(416) 825- 8482</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sufyan Azam</t>
+  </si>
+  <si>
+    <t>raghavs613@gmail.com</t>
+  </si>
+  <si>
+    <t>karticsharma74@hotmail.com</t>
+  </si>
+  <si>
+    <t>Fawad Syed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Marcellinius Secondary School</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>905 913 1216</t>
+  </si>
+  <si>
+    <t>ranbir_singh66@yahoo.ca</t>
+  </si>
+  <si>
+    <t>(416) 700-4045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9057949737 / 
+6476220641</t>
+  </si>
+  <si>
+    <t>munvir_pannu@hotmail.com</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -199,9 +268,6 @@
   </si>
   <si>
     <t>fawaddv@gmail.com</t>
-  </si>
-  <si>
-    <t>Fawad</t>
   </si>
   <si>
     <t>Taimoor</t>
@@ -234,8 +300,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +323,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,75 +369,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -384,7 +386,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DE17D"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -451,7 +453,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -486,7 +487,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,53 +662,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -717,29 +717,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -748,348 +748,443 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E25">
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>79</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
       </c>
       <c r="E26">
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>9054860203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>9059131216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>70</v>
+      <c r="E35" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
     <hyperlink ref="B17" r:id="rId2"/>
     <hyperlink ref="B20" r:id="rId3"/>
     <hyperlink ref="B22" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5" display="tel:416-737-7706"/>
+    <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="B25" r:id="rId6"/>
     <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B30" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="20780" windowHeight="14660"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="20775" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>SANIA HAIDER</t>
   </si>
@@ -295,13 +295,22 @@
   </si>
   <si>
     <t>647-774-3042</t>
+  </si>
+  <si>
+    <t>Sanah Khan</t>
+  </si>
+  <si>
+    <t>sanah.khan@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>905-821-9984</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +379,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -386,7 +463,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="7DE17D"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -662,22 +739,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -697,7 +774,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -717,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -734,7 +811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -748,7 +825,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -763,7 +840,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -780,7 +857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -797,7 +874,7 @@
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -814,7 +891,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -831,7 +908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -848,7 +925,7 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -865,7 +942,7 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -877,7 +954,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -894,7 +971,7 @@
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -911,31 +988,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -946,19 +1023,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -975,7 +1052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -987,7 +1064,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1004,7 +1081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1015,7 +1092,7 @@
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1109,7 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -1049,7 +1126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -1063,7 +1140,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1168,7 @@
         <v>9054860203</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1176,7 @@
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>15</v>
       </c>
@@ -1115,12 +1192,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1132,6 +1209,20 @@
       </c>
       <c r="E35" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1156,12 +1247,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1173,12 +1264,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="20775" windowHeight="13740"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>SANIA HAIDER</t>
   </si>
@@ -243,9 +243,6 @@
     <t>dy2_leonard@hotmail.com</t>
   </si>
   <si>
-    <t>st francis xavier secondary school</t>
-  </si>
-  <si>
     <t>Anisha Akhtar</t>
   </si>
   <si>
@@ -304,13 +301,28 @@
   </si>
   <si>
     <t>905-821-9984</t>
+  </si>
+  <si>
+    <t>inleonard22@gmail.com</t>
+  </si>
+  <si>
+    <t>MMYL</t>
+  </si>
+  <si>
+    <t>Alan Leonard</t>
+  </si>
+  <si>
+    <t>jz1998119@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jason Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +475,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DE17D"/>
+        <a:sysClr val="window" lastClr="78DC78"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -739,14 +751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -754,7 +766,7 @@
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -774,7 +786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -794,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -811,7 +823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -825,7 +837,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -840,7 +852,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -857,7 +869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -874,7 +886,7 @@
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -891,7 +903,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -908,7 +920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -925,7 +937,7 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -942,7 +954,7 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -954,9 +966,9 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>51</v>
@@ -965,15 +977,15 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -982,60 +994,60 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1046,13 +1058,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1064,7 +1076,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1075,29 +1087,29 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -1109,38 +1121,38 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
         <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
       <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B28" t="s">
         <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>9054860203</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -1176,7 +1188,7 @@
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>15</v>
       </c>
@@ -1192,12 +1204,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1207,22 +1219,50 @@
       <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
         <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
         <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37">
+        <v>9058907919</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38">
+        <v>289232516</v>
       </c>
     </row>
   </sheetData>
@@ -1247,12 +1287,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1264,12 +1304,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="720" windowWidth="20730" windowHeight="11760"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>SANIA HAIDER</t>
   </si>
@@ -316,13 +316,16 @@
   </si>
   <si>
     <t>Jason Z</t>
+  </si>
+  <si>
+    <t>289-633-2348</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,7 +478,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="78DC78"/>
+        <a:sysClr val="window" lastClr="7DE17D"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -542,6 +545,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -576,6 +580,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,14 +756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -766,7 +771,7 @@
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -786,7 +791,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -806,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -823,7 +828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -837,7 +842,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -850,9 +855,11 @@
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -869,7 +876,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -886,7 +893,7 @@
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -903,7 +910,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -920,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -937,7 +944,7 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -954,7 +961,7 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -966,7 +973,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -983,7 +990,7 @@
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1000,31 +1007,31 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1035,19 +1042,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1076,7 +1083,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1104,7 +1111,7 @@
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>9054860203</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1195,7 @@
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>15</v>
       </c>
@@ -1204,12 +1211,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -1251,7 +1258,7 @@
         <v>9058907919</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -1272,10 +1279,10 @@
     <hyperlink ref="B17" r:id="rId2"/>
     <hyperlink ref="B20" r:id="rId3"/>
     <hyperlink ref="B22" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="B25" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B30" r:id="rId8"/>
+    <hyperlink ref="B25" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B30" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1287,12 +1294,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1304,12 +1311,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>SANIA HAIDER</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>289-633-2348</t>
+  </si>
+  <si>
+    <t>Michelle Bilek</t>
+  </si>
+  <si>
+    <t>NDP Erindale Candidate</t>
+  </si>
+  <si>
+    <t>mbilek@live.ca</t>
   </si>
 </sst>
 </file>
@@ -757,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,6 +1281,20 @@
         <v>289232516</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39">
+        <v>4169535569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1283,6 +1306,7 @@
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B30" r:id="rId7"/>
     <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="B39" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-580" yWindow="-80" windowWidth="20740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
+  <si>
+    <t>905-956-2182</t>
+  </si>
+  <si>
+    <t>Drishti Thakkar</t>
+  </si>
+  <si>
+    <t>drishti.thakkar@gmail.com</t>
+  </si>
+  <si>
+    <t>Port Credit Secondary</t>
+  </si>
+  <si>
+    <t>647-390-9063</t>
+  </si>
+  <si>
+    <t>Ujala Feroze</t>
+  </si>
+  <si>
+    <t>ujala.feroze@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>647-774-3042</t>
+  </si>
+  <si>
+    <t>Sanah Khan</t>
+  </si>
+  <si>
+    <t>sanah.khan@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>905-821-9984</t>
+  </si>
+  <si>
+    <t>inleonard22@gmail.com</t>
+  </si>
+  <si>
+    <t>MMYL</t>
+  </si>
+  <si>
+    <t>Alan Leonard</t>
+  </si>
+  <si>
+    <t>jz1998119@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jason Z</t>
+  </si>
+  <si>
+    <t>289-633-2348</t>
+  </si>
+  <si>
+    <t>Michelle Bilek</t>
+  </si>
+  <si>
+    <t>NDP Erindale Candidate</t>
+  </si>
+  <si>
+    <t>mbilek@live.ca</t>
+  </si>
+  <si>
+    <t>Ke Zhang (Coco)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke.coco.zhang@gmail.com</t>
+  </si>
+  <si>
+    <t>Humber Lakeshore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(647) 888-8744</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamzakhan17@hotmail.com</t>
+  </si>
+  <si>
+    <t>unb1975@yahoo.ca</t>
+  </si>
+  <si>
+    <t>wajeehkhan123@hotmail.com</t>
+  </si>
+  <si>
+    <t>Amreet Singh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amreet93sidhu@gmail.com</t>
+  </si>
+  <si>
+    <t>Wajeeh Amir Khan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick Hansen Secondary School</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(647) 822-7275</t>
+  </si>
+  <si>
+    <t>Sheridan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zayd Siddiqui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Leeder Middle School</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>SANIA HAIDER</t>
   </si>
@@ -261,80 +375,17 @@
     <t>jetaix01@yahoo.ca</t>
   </si>
   <si>
-    <t>Zayed</t>
-  </si>
-  <si>
     <t>fawaddv@gmail.com</t>
   </si>
   <si>
     <t>Taimoor</t>
-  </si>
-  <si>
-    <t>905-956-2182</t>
-  </si>
-  <si>
-    <t>Drishti Thakkar</t>
-  </si>
-  <si>
-    <t>drishti.thakkar@gmail.com</t>
-  </si>
-  <si>
-    <t>Port Credit Secondary</t>
-  </si>
-  <si>
-    <t>647-390-9063</t>
-  </si>
-  <si>
-    <t>Ujala Feroze</t>
-  </si>
-  <si>
-    <t>ujala.feroze@mail.utoronto.ca</t>
-  </si>
-  <si>
-    <t>647-774-3042</t>
-  </si>
-  <si>
-    <t>Sanah Khan</t>
-  </si>
-  <si>
-    <t>sanah.khan@mail.utoronto.ca</t>
-  </si>
-  <si>
-    <t>905-821-9984</t>
-  </si>
-  <si>
-    <t>inleonard22@gmail.com</t>
-  </si>
-  <si>
-    <t>MMYL</t>
-  </si>
-  <si>
-    <t>Alan Leonard</t>
-  </si>
-  <si>
-    <t>jz1998119@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jason Z</t>
-  </si>
-  <si>
-    <t>289-633-2348</t>
-  </si>
-  <si>
-    <t>Michelle Bilek</t>
-  </si>
-  <si>
-    <t>NDP Erindale Candidate</t>
-  </si>
-  <si>
-    <t>mbilek@live.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +412,19 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="21"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -396,6 +460,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,74 +469,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -487,7 +485,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DE17D"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -765,53 +763,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -820,29 +818,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -851,448 +849,512 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C24">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>111</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
       </c>
       <c r="E25">
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>9054860203</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>9058907919</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>289232516</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>4169535569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1307,6 +1369,9 @@
     <hyperlink ref="B30" r:id="rId7"/>
     <hyperlink ref="E6" r:id="rId8"/>
     <hyperlink ref="B39" r:id="rId9"/>
+    <hyperlink ref="B41" r:id="rId10"/>
+    <hyperlink ref="B42" r:id="rId11"/>
+    <hyperlink ref="B43" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1318,12 +1383,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1335,12 +1400,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-580" yWindow="-80" windowWidth="20740" windowHeight="11760"/>
+    <workbookView xWindow="-585" yWindow="-75" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,6 +469,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -485,7 +553,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="78DC78"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -763,19 +831,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1299,7 +1367,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16">
+    <row r="40" spans="1:5" ht="17.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1320,6 +1388,9 @@
       <c r="B41" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="E41">
+        <v>4167233866</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" s="7" t="s">
@@ -1340,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16">
+    <row r="44" spans="1:5" ht="17.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1383,12 +1454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1400,12 +1471,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-585" yWindow="-75" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -366,9 +366,6 @@
     <t>Fateh Hayer</t>
   </si>
   <si>
-    <t>647-300-0101</t>
-  </si>
-  <si>
     <t>David Suzuki Secondary School, Brampton</t>
   </si>
   <si>
@@ -379,13 +376,16 @@
   </si>
   <si>
     <t>Taimoor</t>
+  </si>
+  <si>
+    <t>647-300-0101 / 647 960 1002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,7 +553,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="78DC78"/>
+        <a:sysClr val="window" lastClr="7DE17D"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -831,14 +831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -846,7 +846,7 @@
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -866,7 +866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -903,7 +903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -917,7 +917,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -934,7 +934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -951,7 +951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -968,7 +968,7 @@
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -985,7 +985,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1076,39 +1076,39 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>89</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>92</v>
@@ -1117,19 +1117,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>94</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -1175,12 +1175,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -1192,12 +1192,12 @@
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -1209,7 +1209,7 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>9054860203</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>46</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>50</v>
       </c>
@@ -1292,12 +1292,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>9058907919</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>289232516</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25">
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>24</v>
       </c>
@@ -1392,12 +1392,12 @@
         <v>4167233866</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1454,12 +1454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1471,12 +1471,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-585" yWindow="-75" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="4760" yWindow="-80" windowWidth="21520" windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
+  <si>
+    <t>ayesha.f13@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivian Li</t>
+  </si>
+  <si>
+    <t>vivi881121@gmail.com</t>
+  </si>
+  <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>diyakamath@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Stephen Lewis Secondary</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>annie.195@hotmail.com</t>
+  </si>
+  <si>
+    <t>fatehhayer1999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hawkstar@live.ca</t>
+  </si>
+  <si>
+    <t>mikayla_december@outlook.com</t>
+  </si>
+  <si>
+    <t>imranshaista@hotmail.com</t>
+  </si>
+  <si>
+    <t>sundaram_balas@yahoo.ca</t>
+  </si>
+  <si>
+    <t>taimoorgul98@gmail.com</t>
+  </si>
+  <si>
+    <t>mmdj360@gmail.com</t>
+  </si>
+  <si>
+    <t>Xenwraith@gmail.com</t>
+  </si>
+  <si>
+    <t>Jordan Gray</t>
+  </si>
+  <si>
+    <t>jordancgray@hotmail.com</t>
+  </si>
+  <si>
+    <t>(647) 233-4244</t>
+  </si>
+  <si>
+    <t>416-737-7706 / 647-767-9601</t>
+  </si>
+  <si>
+    <t>416-738-3281</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Syed Abdullah Hussain</t>
+  </si>
+  <si>
+    <t>abd_pisces@live.com</t>
+  </si>
+  <si>
+    <t>Dylan Leonard</t>
+  </si>
+  <si>
+    <t>647 783 6844</t>
+  </si>
+  <si>
+    <t>dy2_leonard@hotmail.com</t>
+  </si>
+  <si>
+    <t>Anisha Akhtar</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>Fateh Hayer</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary School, Brampton</t>
+  </si>
+  <si>
+    <t>jetaix01@yahoo.ca</t>
+  </si>
+  <si>
+    <t>fawaddv@gmail.com</t>
+  </si>
+  <si>
+    <t>Taimoor</t>
+  </si>
+  <si>
+    <t>647-300-0101 / 647 960 1002</t>
+  </si>
+  <si>
+    <t>tanvi1111@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tanvi Mehta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordon Graydon Memorial Secondary School</t>
+  </si>
+  <si>
+    <t>(647) 502-3605</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>905-956-2182</t>
   </si>
@@ -271,121 +393,13 @@
   </si>
   <si>
     <t>Ayesha Faizi</t>
-  </si>
-  <si>
-    <t>ayesha.f13@gmail.com</t>
-  </si>
-  <si>
-    <t>Vivian Li</t>
-  </si>
-  <si>
-    <t>vivi881121@gmail.com</t>
-  </si>
-  <si>
-    <t>Diya</t>
-  </si>
-  <si>
-    <t>diyakamath@yahoo.ca</t>
-  </si>
-  <si>
-    <t>Stephen Lewis Secondary</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>annie.195@hotmail.com</t>
-  </si>
-  <si>
-    <t>fatehhayer1999@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hawkstar@live.ca</t>
-  </si>
-  <si>
-    <t>mikayla_december@outlook.com</t>
-  </si>
-  <si>
-    <t>imranshaista@hotmail.com</t>
-  </si>
-  <si>
-    <t>sundaram_balas@yahoo.ca</t>
-  </si>
-  <si>
-    <t>taimoorgul98@gmail.com</t>
-  </si>
-  <si>
-    <t>mmdj360@gmail.com</t>
-  </si>
-  <si>
-    <t>Xenwraith@gmail.com</t>
-  </si>
-  <si>
-    <t>Jordan Gray</t>
-  </si>
-  <si>
-    <t>jordancgray@hotmail.com</t>
-  </si>
-  <si>
-    <t>(647) 233-4244</t>
-  </si>
-  <si>
-    <t>416-737-7706 / 647-767-9601</t>
-  </si>
-  <si>
-    <t>416-738-3281</t>
-  </si>
-  <si>
-    <t>Drive</t>
-  </si>
-  <si>
-    <t>Syed Abdullah Hussain</t>
-  </si>
-  <si>
-    <t>abd_pisces@live.com</t>
-  </si>
-  <si>
-    <t>Dylan Leonard</t>
-  </si>
-  <si>
-    <t>647 783 6844</t>
-  </si>
-  <si>
-    <t>dy2_leonard@hotmail.com</t>
-  </si>
-  <si>
-    <t>Anisha Akhtar</t>
-  </si>
-  <si>
-    <t>York University</t>
-  </si>
-  <si>
-    <t>Fateh Hayer</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary School, Brampton</t>
-  </si>
-  <si>
-    <t>jetaix01@yahoo.ca</t>
-  </si>
-  <si>
-    <t>fawaddv@gmail.com</t>
-  </si>
-  <si>
-    <t>Taimoor</t>
-  </si>
-  <si>
-    <t>647-300-0101 / 647 960 1002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +439,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="21"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -462,6 +486,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,74 +495,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -553,7 +511,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DE17D"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -831,53 +789,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -886,29 +844,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -917,515 +875,532 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E26">
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>9054860203</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="2" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
       </c>
       <c r="E37">
         <v>9058907919</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>289232516</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <v>4169535569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="B41" s="7" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>4167233866</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1454,12 +1429,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1471,12 +1446,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="-80" windowWidth="21520" windowHeight="15400"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21520" windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,252 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
-  <si>
-    <t>ayesha.f13@gmail.com</t>
-  </si>
-  <si>
-    <t>Vivian Li</t>
-  </si>
-  <si>
-    <t>vivi881121@gmail.com</t>
-  </si>
-  <si>
-    <t>Diya</t>
-  </si>
-  <si>
-    <t>diyakamath@yahoo.ca</t>
-  </si>
-  <si>
-    <t>Stephen Lewis Secondary</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>annie.195@hotmail.com</t>
-  </si>
-  <si>
-    <t>fatehhayer1999@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hawkstar@live.ca</t>
-  </si>
-  <si>
-    <t>mikayla_december@outlook.com</t>
-  </si>
-  <si>
-    <t>imranshaista@hotmail.com</t>
-  </si>
-  <si>
-    <t>sundaram_balas@yahoo.ca</t>
-  </si>
-  <si>
-    <t>taimoorgul98@gmail.com</t>
-  </si>
-  <si>
-    <t>mmdj360@gmail.com</t>
-  </si>
-  <si>
-    <t>Xenwraith@gmail.com</t>
-  </si>
-  <si>
-    <t>Jordan Gray</t>
-  </si>
-  <si>
-    <t>jordancgray@hotmail.com</t>
-  </si>
-  <si>
-    <t>(647) 233-4244</t>
-  </si>
-  <si>
-    <t>416-737-7706 / 647-767-9601</t>
-  </si>
-  <si>
-    <t>416-738-3281</t>
-  </si>
-  <si>
-    <t>Drive</t>
-  </si>
-  <si>
-    <t>Syed Abdullah Hussain</t>
-  </si>
-  <si>
-    <t>abd_pisces@live.com</t>
-  </si>
-  <si>
-    <t>Dylan Leonard</t>
-  </si>
-  <si>
-    <t>647 783 6844</t>
-  </si>
-  <si>
-    <t>dy2_leonard@hotmail.com</t>
-  </si>
-  <si>
-    <t>Anisha Akhtar</t>
-  </si>
-  <si>
-    <t>York University</t>
-  </si>
-  <si>
-    <t>Fateh Hayer</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary School, Brampton</t>
-  </si>
-  <si>
-    <t>jetaix01@yahoo.ca</t>
-  </si>
-  <si>
-    <t>fawaddv@gmail.com</t>
-  </si>
-  <si>
-    <t>Taimoor</t>
-  </si>
-  <si>
-    <t>647-300-0101 / 647 960 1002</t>
-  </si>
-  <si>
-    <t>tanvi1111@hotmail.com</t>
-  </si>
-  <si>
-    <t>Tanvi Mehta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gordon Graydon Memorial Secondary School</t>
-  </si>
-  <si>
-    <t>(647) 502-3605</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>905-956-2182</t>
-  </si>
-  <si>
-    <t>Drishti Thakkar</t>
-  </si>
-  <si>
-    <t>drishti.thakkar@gmail.com</t>
-  </si>
-  <si>
-    <t>Port Credit Secondary</t>
-  </si>
-  <si>
-    <t>647-390-9063</t>
-  </si>
-  <si>
-    <t>Ujala Feroze</t>
-  </si>
-  <si>
-    <t>ujala.feroze@mail.utoronto.ca</t>
-  </si>
-  <si>
-    <t>647-774-3042</t>
-  </si>
-  <si>
-    <t>Sanah Khan</t>
-  </si>
-  <si>
-    <t>sanah.khan@mail.utoronto.ca</t>
-  </si>
-  <si>
-    <t>905-821-9984</t>
-  </si>
-  <si>
-    <t>inleonard22@gmail.com</t>
-  </si>
-  <si>
-    <t>MMYL</t>
-  </si>
-  <si>
-    <t>Alan Leonard</t>
-  </si>
-  <si>
-    <t>jz1998119@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jason Z</t>
-  </si>
-  <si>
-    <t>289-633-2348</t>
-  </si>
-  <si>
-    <t>Michelle Bilek</t>
-  </si>
-  <si>
-    <t>NDP Erindale Candidate</t>
-  </si>
-  <si>
-    <t>mbilek@live.ca</t>
-  </si>
-  <si>
-    <t>Ke Zhang (Coco)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ke.coco.zhang@gmail.com</t>
-  </si>
-  <si>
-    <t>Humber Lakeshore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(647) 888-8744</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hamzakhan17@hotmail.com</t>
-  </si>
-  <si>
-    <t>unb1975@yahoo.ca</t>
-  </si>
-  <si>
-    <t>wajeehkhan123@hotmail.com</t>
-  </si>
-  <si>
-    <t>Amreet Singh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>amreet93sidhu@gmail.com</t>
-  </si>
-  <si>
-    <t>Wajeeh Amir Khan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rick Hansen Secondary School</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(647) 822-7275</t>
-  </si>
-  <si>
-    <t>Sheridan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zayd Siddiqui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Leeder Middle School</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SANIA HAIDER</t>
-  </si>
-  <si>
-    <t>sania.haider@mail.utoronto.ca</t>
-  </si>
-  <si>
-    <t>(647) 282-8452</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
   <si>
     <t>afi_capk@hotmail.com</t>
   </si>
@@ -393,13 +148,281 @@
   </si>
   <si>
     <t>Ayesha Faizi</t>
+  </si>
+  <si>
+    <t>Ali Turab Lotia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliturablotia@gmail.com</t>
+  </si>
+  <si>
+    <t>647-997-085</t>
+  </si>
+  <si>
+    <t>Paul Konieczny</t>
+  </si>
+  <si>
+    <t>647-217-2793</t>
+  </si>
+  <si>
+    <t>pkonieczny@rogers.com</t>
+  </si>
+  <si>
+    <t>UTM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayesha.f13@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivian Li</t>
+  </si>
+  <si>
+    <t>vivi881121@gmail.com</t>
+  </si>
+  <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>diyakamath@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Stephen Lewis Secondary</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>annie.195@hotmail.com</t>
+  </si>
+  <si>
+    <t>fatehhayer1999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hawkstar@live.ca</t>
+  </si>
+  <si>
+    <t>mikayla_december@outlook.com</t>
+  </si>
+  <si>
+    <t>imranshaista@hotmail.com</t>
+  </si>
+  <si>
+    <t>sundaram_balas@yahoo.ca</t>
+  </si>
+  <si>
+    <t>taimoorgul98@gmail.com</t>
+  </si>
+  <si>
+    <t>mmdj360@gmail.com</t>
+  </si>
+  <si>
+    <t>Xenwraith@gmail.com</t>
+  </si>
+  <si>
+    <t>Jordan Gray</t>
+  </si>
+  <si>
+    <t>jordancgray@hotmail.com</t>
+  </si>
+  <si>
+    <t>(647) 233-4244</t>
+  </si>
+  <si>
+    <t>416-737-7706 / 647-767-9601</t>
+  </si>
+  <si>
+    <t>416-738-3281</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Syed Abdullah Hussain</t>
+  </si>
+  <si>
+    <t>abd_pisces@live.com</t>
+  </si>
+  <si>
+    <t>Dylan Leonard</t>
+  </si>
+  <si>
+    <t>647 783 6844</t>
+  </si>
+  <si>
+    <t>dy2_leonard@hotmail.com</t>
+  </si>
+  <si>
+    <t>Anisha Akhtar</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>Fateh Hayer</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary School, Brampton</t>
+  </si>
+  <si>
+    <t>jetaix01@yahoo.ca</t>
+  </si>
+  <si>
+    <t>fawaddv@gmail.com</t>
+  </si>
+  <si>
+    <t>Taimoor</t>
+  </si>
+  <si>
+    <t>647-300-0101 / 647 960 1002</t>
+  </si>
+  <si>
+    <t>tanvi1111@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tanvi Mehta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordon Graydon Memorial Secondary School</t>
+  </si>
+  <si>
+    <t>(647) 502-3605</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>905-956-2182</t>
+  </si>
+  <si>
+    <t>Drishti Thakkar</t>
+  </si>
+  <si>
+    <t>drishti.thakkar@gmail.com</t>
+  </si>
+  <si>
+    <t>Port Credit Secondary</t>
+  </si>
+  <si>
+    <t>647-390-9063</t>
+  </si>
+  <si>
+    <t>Ujala Feroze</t>
+  </si>
+  <si>
+    <t>ujala.feroze@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>647-774-3042</t>
+  </si>
+  <si>
+    <t>Sanah Khan</t>
+  </si>
+  <si>
+    <t>sanah.khan@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>905-821-9984</t>
+  </si>
+  <si>
+    <t>inleonard22@gmail.com</t>
+  </si>
+  <si>
+    <t>MMYL</t>
+  </si>
+  <si>
+    <t>Alan Leonard</t>
+  </si>
+  <si>
+    <t>jz1998119@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jason Z</t>
+  </si>
+  <si>
+    <t>289-633-2348</t>
+  </si>
+  <si>
+    <t>Michelle Bilek</t>
+  </si>
+  <si>
+    <t>NDP Erindale Candidate</t>
+  </si>
+  <si>
+    <t>mbilek@live.ca</t>
+  </si>
+  <si>
+    <t>Ke Zhang (Coco)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke.coco.zhang@gmail.com</t>
+  </si>
+  <si>
+    <t>Humber Lakeshore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(647) 888-8744</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamzakhan17@hotmail.com</t>
+  </si>
+  <si>
+    <t>unb1975@yahoo.ca</t>
+  </si>
+  <si>
+    <t>wajeehkhan123@hotmail.com</t>
+  </si>
+  <si>
+    <t>Amreet Singh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amreet93sidhu@gmail.com</t>
+  </si>
+  <si>
+    <t>Wajeeh Amir Khan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick Hansen Secondary School</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(647) 822-7275</t>
+  </si>
+  <si>
+    <t>Sheridan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zayd Siddiqui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Leeder Middle School</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANIA HAIDER</t>
+  </si>
+  <si>
+    <t>sania.haider@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>(647) 282-8452</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +472,16 @@
       <color indexed="63"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="63"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -471,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,6 +521,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -806,36 +841,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -846,27 +881,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -877,50 +912,50 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
@@ -928,16 +963,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
@@ -945,33 +980,33 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
@@ -979,16 +1014,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
@@ -996,10 +1031,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1008,16 +1043,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
@@ -1025,91 +1060,91 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -1118,33 +1153,33 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>9054619350</v>
@@ -1152,16 +1187,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>6474061810</v>
@@ -1169,58 +1204,58 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>9054860203</v>
@@ -1228,7 +1263,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>9059131216</v>
@@ -1236,62 +1271,62 @@
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E37">
         <v>9058907919</v>
@@ -1299,13 +1334,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E38">
         <v>289232516</v>
@@ -1313,13 +1348,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="E39">
         <v>4169535569</v>
@@ -1327,24 +1362,24 @@
     </row>
     <row r="40" spans="1:5" ht="16">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E41">
         <v>4167233866</v>
@@ -1352,55 +1387,83 @@
     </row>
     <row r="42" spans="1:5">
       <c r="B42" s="7" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C43">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>14</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16">
+      <c r="A47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1418,6 +1481,8 @@
     <hyperlink ref="B41" r:id="rId10"/>
     <hyperlink ref="B42" r:id="rId11"/>
     <hyperlink ref="B43" r:id="rId12"/>
+    <hyperlink ref="B46" r:id="rId13"/>
+    <hyperlink ref="B47" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21520" windowHeight="15400"/>
+    <workbookView xWindow="2140" yWindow="2460" windowWidth="21520" windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="128">
+  <si>
+    <t>jetaix01@yahoo.ca</t>
+  </si>
+  <si>
+    <t>fawaddv@gmail.com</t>
+  </si>
+  <si>
+    <t>Taimoor</t>
+  </si>
+  <si>
+    <t>647-300-0101 / 647 960 1002</t>
+  </si>
+  <si>
+    <t>tanvi1111@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tanvi Mehta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordon Graydon Memorial Secondary School</t>
+  </si>
+  <si>
+    <t>(647) 502-3605</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>905-956-2182</t>
+  </si>
+  <si>
+    <t>Drishti Thakkar</t>
+  </si>
+  <si>
+    <t>drishti.thakkar@gmail.com</t>
+  </si>
+  <si>
+    <t>Port Credit Secondary</t>
+  </si>
+  <si>
+    <t>647-390-9063</t>
+  </si>
+  <si>
+    <t>Ujala Feroze</t>
+  </si>
+  <si>
+    <t>ujala.feroze@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>647-774-3042</t>
+  </si>
+  <si>
+    <t>Sanah Khan</t>
+  </si>
+  <si>
+    <t>sanah.khan@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>905-821-9984</t>
+  </si>
+  <si>
+    <t>inleonard22@gmail.com</t>
+  </si>
+  <si>
+    <t>MMYL</t>
+  </si>
+  <si>
+    <t>Alan Leonard</t>
+  </si>
+  <si>
+    <t>jz1998119@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jason Z</t>
+  </si>
+  <si>
+    <t>289-633-2348</t>
+  </si>
+  <si>
+    <t>Michelle Bilek</t>
+  </si>
+  <si>
+    <t>NDP Erindale Candidate</t>
+  </si>
+  <si>
+    <t>mbilek@live.ca</t>
+  </si>
+  <si>
+    <t>Ke Zhang (Coco)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke.coco.zhang@gmail.com</t>
+  </si>
+  <si>
+    <t>Humber Lakeshore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(647) 888-8744</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamzakhan17@hotmail.com</t>
+  </si>
+  <si>
+    <t>unb1975@yahoo.ca</t>
+  </si>
+  <si>
+    <t>wajeehkhan123@hotmail.com</t>
+  </si>
+  <si>
+    <t>Amreet Singh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amreet93sidhu@gmail.com</t>
+  </si>
+  <si>
+    <t>Wajeeh Amir Khan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick Hansen Secondary School</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(647) 822-7275</t>
+  </si>
+  <si>
+    <t>Sheridan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zayd Siddiqui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Leeder Middle School</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANIA HAIDER</t>
+  </si>
+  <si>
+    <t>sania.haider@mail.utoronto.ca</t>
+  </si>
+  <si>
+    <t>(647) 282-8452</t>
+  </si>
+  <si>
+    <t>arrafaqat@gmail.com</t>
+  </si>
+  <si>
+    <t>Ammar Rafaqat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acension Of Our Lord S.S.</t>
+  </si>
   <si>
     <t>afi_capk@hotmail.com</t>
   </si>
@@ -267,162 +426,13 @@
   </si>
   <si>
     <t>David Suzuki Secondary School, Brampton</t>
-  </si>
-  <si>
-    <t>jetaix01@yahoo.ca</t>
-  </si>
-  <si>
-    <t>fawaddv@gmail.com</t>
-  </si>
-  <si>
-    <t>Taimoor</t>
-  </si>
-  <si>
-    <t>647-300-0101 / 647 960 1002</t>
-  </si>
-  <si>
-    <t>tanvi1111@hotmail.com</t>
-  </si>
-  <si>
-    <t>Tanvi Mehta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gordon Graydon Memorial Secondary School</t>
-  </si>
-  <si>
-    <t>(647) 502-3605</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>905-956-2182</t>
-  </si>
-  <si>
-    <t>Drishti Thakkar</t>
-  </si>
-  <si>
-    <t>drishti.thakkar@gmail.com</t>
-  </si>
-  <si>
-    <t>Port Credit Secondary</t>
-  </si>
-  <si>
-    <t>647-390-9063</t>
-  </si>
-  <si>
-    <t>Ujala Feroze</t>
-  </si>
-  <si>
-    <t>ujala.feroze@mail.utoronto.ca</t>
-  </si>
-  <si>
-    <t>647-774-3042</t>
-  </si>
-  <si>
-    <t>Sanah Khan</t>
-  </si>
-  <si>
-    <t>sanah.khan@mail.utoronto.ca</t>
-  </si>
-  <si>
-    <t>905-821-9984</t>
-  </si>
-  <si>
-    <t>inleonard22@gmail.com</t>
-  </si>
-  <si>
-    <t>MMYL</t>
-  </si>
-  <si>
-    <t>Alan Leonard</t>
-  </si>
-  <si>
-    <t>jz1998119@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jason Z</t>
-  </si>
-  <si>
-    <t>289-633-2348</t>
-  </si>
-  <si>
-    <t>Michelle Bilek</t>
-  </si>
-  <si>
-    <t>NDP Erindale Candidate</t>
-  </si>
-  <si>
-    <t>mbilek@live.ca</t>
-  </si>
-  <si>
-    <t>Ke Zhang (Coco)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ke.coco.zhang@gmail.com</t>
-  </si>
-  <si>
-    <t>Humber Lakeshore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(647) 888-8744</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hamzakhan17@hotmail.com</t>
-  </si>
-  <si>
-    <t>unb1975@yahoo.ca</t>
-  </si>
-  <si>
-    <t>wajeehkhan123@hotmail.com</t>
-  </si>
-  <si>
-    <t>Amreet Singh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>amreet93sidhu@gmail.com</t>
-  </si>
-  <si>
-    <t>Wajeeh Amir Khan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rick Hansen Secondary School</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(647) 822-7275</t>
-  </si>
-  <si>
-    <t>Sheridan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zayd Siddiqui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Leeder Middle School</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SANIA HAIDER</t>
-  </si>
-  <si>
-    <t>sania.haider@mail.utoronto.ca</t>
-  </si>
-  <si>
-    <t>(647) 282-8452</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +492,11 @@
       <color indexed="18"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="21"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -504,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -523,6 +538,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,7 +841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
@@ -841,36 +857,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -881,27 +897,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -912,50 +928,50 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
@@ -963,16 +979,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
@@ -980,33 +996,33 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
@@ -1014,16 +1030,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
@@ -1031,10 +1047,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1043,16 +1059,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
@@ -1060,91 +1076,91 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -1153,33 +1169,33 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C24">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>9054619350</v>
@@ -1187,16 +1203,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>6474061810</v>
@@ -1204,58 +1220,58 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>9054860203</v>
@@ -1263,7 +1279,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E31">
         <v>9059131216</v>
@@ -1271,62 +1287,62 @@
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>9058907919</v>
@@ -1334,13 +1350,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>289232516</v>
@@ -1348,13 +1364,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>4169535569</v>
@@ -1362,24 +1378,24 @@
     </row>
     <row r="40" spans="1:5" ht="16">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" s="7" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>4167233866</v>
@@ -1387,83 +1403,97 @@
     </row>
     <row r="42" spans="1:5">
       <c r="B42" s="7" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>14</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="19">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16">
       <c r="A47" s="11" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="19">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>44</v>
+      <c r="C48">
+        <v>13</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2460" windowWidth="21520" windowHeight="15400"/>
+    <workbookView xWindow="2145" yWindow="2460" windowWidth="21525" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(647) 822-7275</t>
-  </si>
-  <si>
     <t>Sheridan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -426,13 +423,16 @@
   </si>
   <si>
     <t>David Suzuki Secondary School, Brampton</t>
+  </si>
+  <si>
+    <t>(647) 822-7274</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +546,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -562,7 +630,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="7DE17D"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -840,53 +908,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -895,29 +963,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -926,224 +994,224 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
         <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
         <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
         <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" t="s">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="B22" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -1152,27 +1220,27 @@
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -1181,12 +1249,12 @@
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -1195,15 +1263,15 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1212,13 +1280,13 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1243,84 +1311,84 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
         <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
       </c>
       <c r="E30">
         <v>9054860203</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
       <c r="E33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1328,13 +1396,13 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1416,7 @@
         <v>9058907919</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1430,7 @@
         <v>289232516</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1444,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16">
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1393,7 +1461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1401,12 +1469,12 @@
         <v>4167233866</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1420,7 +1488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1431,13 +1499,13 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1454,46 +1522,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19">
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="10" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="16">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="19">
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>13</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1524,12 +1592,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1541,12 +1609,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>jetaix01@yahoo.ca</t>
   </si>
@@ -174,9 +174,6 @@
   <si>
     <t>Ammar Rafaqat</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acension Of Our Lord S.S.</t>
   </si>
   <si>
     <t>afi_capk@hotmail.com</t>
@@ -426,6 +423,15 @@
   </si>
   <si>
     <t>(647) 822-7274</t>
+  </si>
+  <si>
+    <t>Ascension of Our Lord</t>
+  </si>
+  <si>
+    <t>905 405 9413</t>
+  </si>
+  <si>
+    <t>905 612 8353</t>
   </si>
 </sst>
 </file>
@@ -911,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,36 +931,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -965,27 +971,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -996,16 +1002,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1013,33 +1019,33 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
@@ -1047,16 +1053,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
         <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
@@ -1064,33 +1070,33 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
@@ -1098,16 +1104,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
         <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
@@ -1115,10 +1121,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
         <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1127,16 +1133,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
@@ -1144,16 +1150,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
@@ -1161,25 +1167,30 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1188,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>8</v>
@@ -1196,22 +1207,22 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -1220,15 +1231,15 @@
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
         <v>118</v>
-      </c>
-      <c r="B23" t="s">
-        <v>119</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -1237,10 +1248,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -1249,7 +1260,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,7 +1282,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1280,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>6474061810</v>
@@ -1311,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -1325,7 +1336,7 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>44</v>
@@ -1333,13 +1344,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
         <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
       </c>
       <c r="E30">
         <v>9054860203</v>
@@ -1347,7 +1358,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31">
         <v>9059131216</v>
@@ -1355,37 +1366,37 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>18</v>
@@ -1502,7 +1513,7 @@
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1524,30 +1535,30 @@
     </row>
     <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -1561,7 +1572,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>47</v>
+        <v>127</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2460" windowWidth="21525" windowHeight="13740"/>
+    <workbookView xWindow="2145" yWindow="2460" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,9 +310,6 @@
     <t>aliturablotia@gmail.com</t>
   </si>
   <si>
-    <t>647-997-085</t>
-  </si>
-  <si>
     <t>Paul Konieczny</t>
   </si>
   <si>
@@ -432,13 +429,16 @@
   </si>
   <si>
     <t>905 612 8353</t>
+  </si>
+  <si>
+    <t>647-997-0852</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,7 +636,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DE17D"/>
+        <a:sysClr val="window" lastClr="78DC78"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -703,7 +703,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -738,7 +737,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -914,14 +912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -929,7 +927,7 @@
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -943,13 +941,13 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -969,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -983,10 +981,10 @@
         <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1011,13 +1009,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1031,10 +1029,10 @@
         <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1045,13 +1043,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1085,12 +1083,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -1102,12 +1100,12 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -1119,110 +1117,110 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
         <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -1231,27 +1229,27 @@
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
         <v>117</v>
-      </c>
-      <c r="B23" t="s">
-        <v>118</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -1260,10 +1258,10 @@
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1297,7 +1295,7 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1342,7 +1340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1352,11 +1350,8 @@
       <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="E30">
-        <v>9054860203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -1372,7 +1367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -1380,12 +1375,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1399,7 +1394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1427,7 +1422,7 @@
         <v>9058907919</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1441,7 +1436,7 @@
         <v>289232516</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1455,7 +1450,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="17.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1480,12 +1475,12 @@
         <v>4167233866</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1499,7 +1494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="17.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1513,10 +1508,10 @@
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="18.75">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -1541,27 +1536,27 @@
         <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5">
+      <c r="A47" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" ht="18.75">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1572,10 +1567,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
         <v>127</v>
-      </c>
-      <c r="E48" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1606,12 +1601,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1623,12 +1618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>jetaix01@yahoo.ca</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>647-997-0852</t>
+  </si>
+  <si>
+    <t>Vigil Vincent</t>
+  </si>
+  <si>
+    <t>vigiljoe24@gmail.com</t>
+  </si>
+  <si>
+    <t>(437) 580-0905 / (905) 205-0304</t>
   </si>
 </sst>
 </file>
@@ -913,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -924,7 +933,7 @@
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1350,6 +1359,9 @@
       <c r="D30" t="s">
         <v>48</v>
       </c>
+      <c r="E30">
+        <v>9054860232</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
@@ -1571,6 +1583,23 @@
       </c>
       <c r="E48" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="2460" windowWidth="20730" windowHeight="11760"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
   <si>
     <t>jetaix01@yahoo.ca</t>
   </si>
@@ -441,13 +441,19 @@
   </si>
   <si>
     <t>(437) 580-0905 / (905) 205-0304</t>
+  </si>
+  <si>
+    <t>aritankovic@gmail.com</t>
+  </si>
+  <si>
+    <t>Armin Tankovic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +651,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="78DC78"/>
+        <a:sysClr val="window" lastClr="7DE17D"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -712,6 +718,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -746,6 +753,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -921,14 +929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -936,7 +944,7 @@
     <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -956,7 +964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -976,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -993,7 +1001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1058,7 +1066,7 @@
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1109,7 +1117,7 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -1138,7 +1146,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>103</v>
       </c>
@@ -1183,25 +1191,25 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>106</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1212,19 +1220,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>109</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -1253,7 +1261,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1287,7 +1295,7 @@
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v>9054860232</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -1371,7 +1379,7 @@
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -1387,12 +1395,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>9058907919</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>289232516</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1462,7 +1470,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25">
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1479,7 +1487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1487,12 +1495,12 @@
         <v>4167233866</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.75">
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>89</v>
       </c>
@@ -1568,7 +1576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.75">
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -1600,6 +1608,20 @@
       </c>
       <c r="E49" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>6478227275</v>
       </c>
     </row>
   </sheetData>
@@ -1630,12 +1652,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1647,12 +1669,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2460" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="500" yWindow="-20" windowWidth="13880" windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
+  <si>
+    <t>Zakira</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>karbaryz@gmail.com</t>
+  </si>
+  <si>
+    <t>dezaya.joseph@hotmail.com </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hspathan13@gmail.com</t>
+  </si>
+  <si>
+    <t>David Leeder Middle School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasra Nadeem </t>
+  </si>
+  <si>
+    <t>nasra.nadeem@hotmail.com</t>
+  </si>
+  <si>
+    <t>Uswa Zahoor</t>
+  </si>
+  <si>
+    <t>uswa.zahoor@hotmail.ca</t>
+  </si>
+  <si>
+    <t>Glenforest Secondary School</t>
+  </si>
+  <si>
+    <t>Michael Jackman</t>
+  </si>
+  <si>
+    <t>michaelericjackman@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayesha Faizi</t>
+  </si>
+  <si>
+    <t>Ali Turab Lotia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliturablotia@gmail.com</t>
+  </si>
+  <si>
+    <t>Paul Konieczny</t>
+  </si>
+  <si>
+    <t>647-217-2793</t>
+  </si>
+  <si>
+    <t>pkonieczny@rogers.com</t>
+  </si>
+  <si>
+    <t>UTM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayesha.f13@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivian Li</t>
+  </si>
+  <si>
+    <t>vivi881121@gmail.com</t>
+  </si>
+  <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>diyakamath@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Stephen Lewis Secondary</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>annie.195@hotmail.com</t>
+  </si>
+  <si>
+    <t>fatehhayer1999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hawkstar@live.ca</t>
+  </si>
+  <si>
+    <t>mikayla_december@outlook.com</t>
+  </si>
+  <si>
+    <t>imranshaista@hotmail.com</t>
+  </si>
+  <si>
+    <t>sundaram_balas@yahoo.ca</t>
+  </si>
+  <si>
+    <t>taimoorgul98@gmail.com</t>
+  </si>
+  <si>
+    <t>mmdj360@gmail.com</t>
+  </si>
+  <si>
+    <t>Xenwraith@gmail.com</t>
+  </si>
+  <si>
+    <t>Jordan Gray</t>
+  </si>
+  <si>
+    <t>jordancgray@hotmail.com</t>
+  </si>
+  <si>
+    <t>(647) 233-4244</t>
+  </si>
+  <si>
+    <t>416-737-7706 / 647-767-9601</t>
+  </si>
+  <si>
+    <t>416-738-3281</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Syed Abdullah Hussain</t>
+  </si>
+  <si>
+    <t>abd_pisces@live.com</t>
+  </si>
+  <si>
+    <t>Dylan Leonard</t>
+  </si>
+  <si>
+    <t>647 783 6844</t>
+  </si>
+  <si>
+    <t>dy2_leonard@hotmail.com</t>
+  </si>
+  <si>
+    <t>Anisha Akhtar</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>Fateh Hayer</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary School, Brampton</t>
+  </si>
+  <si>
+    <t>(647) 822-7274</t>
+  </si>
+  <si>
+    <t>Ascension of Our Lord</t>
+  </si>
+  <si>
+    <t>905 405 9413</t>
+  </si>
+  <si>
+    <t>905 612 8353</t>
+  </si>
+  <si>
+    <t>647-997-0852</t>
+  </si>
+  <si>
+    <t>Vigil Vincent</t>
+  </si>
+  <si>
+    <t>vigiljoe24@gmail.com</t>
+  </si>
+  <si>
+    <t>(437) 580-0905 / (905) 205-0304</t>
+  </si>
+  <si>
+    <t>aritankovic@gmail.com</t>
+  </si>
+  <si>
+    <t>Armin Tankovic</t>
+  </si>
+  <si>
+    <t>Dezaya Joseph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandon Prakash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pabdeep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lincoln Alexander Secondary School. </t>
+  </si>
+  <si>
+    <t>brandon.prakash@hotmail.com</t>
+  </si>
+  <si>
+    <t> 905 678 6526</t>
+  </si>
+  <si>
+    <t>905 956 1163</t>
+  </si>
+  <si>
+    <t>Lincoln Alexander Secondary School. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panesar.panesar@gmail.com</t>
+  </si>
+  <si>
+    <t>St. Joseph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>jetaix01@yahoo.ca</t>
   </si>
@@ -271,189 +493,13 @@
   </si>
   <si>
     <t>Humza Pathan</t>
-  </si>
-  <si>
-    <t>hspathan13@gmail.com</t>
-  </si>
-  <si>
-    <t>David Leeder Middle School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasra Nadeem </t>
-  </si>
-  <si>
-    <t>nasra.nadeem@hotmail.com</t>
-  </si>
-  <si>
-    <t>Uswa Zahoor</t>
-  </si>
-  <si>
-    <t>uswa.zahoor@hotmail.ca</t>
-  </si>
-  <si>
-    <t>Glenforest Secondary School</t>
-  </si>
-  <si>
-    <t>Michael Jackman</t>
-  </si>
-  <si>
-    <t>michaelericjackman@gmail.com</t>
-  </si>
-  <si>
-    <t>Ayesha Faizi</t>
-  </si>
-  <si>
-    <t>Ali Turab Lotia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aliturablotia@gmail.com</t>
-  </si>
-  <si>
-    <t>Paul Konieczny</t>
-  </si>
-  <si>
-    <t>647-217-2793</t>
-  </si>
-  <si>
-    <t>pkonieczny@rogers.com</t>
-  </si>
-  <si>
-    <t>UTM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ayesha.f13@gmail.com</t>
-  </si>
-  <si>
-    <t>Vivian Li</t>
-  </si>
-  <si>
-    <t>vivi881121@gmail.com</t>
-  </si>
-  <si>
-    <t>Diya</t>
-  </si>
-  <si>
-    <t>diyakamath@yahoo.ca</t>
-  </si>
-  <si>
-    <t>Stephen Lewis Secondary</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>annie.195@hotmail.com</t>
-  </si>
-  <si>
-    <t>fatehhayer1999@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hawkstar@live.ca</t>
-  </si>
-  <si>
-    <t>mikayla_december@outlook.com</t>
-  </si>
-  <si>
-    <t>imranshaista@hotmail.com</t>
-  </si>
-  <si>
-    <t>sundaram_balas@yahoo.ca</t>
-  </si>
-  <si>
-    <t>taimoorgul98@gmail.com</t>
-  </si>
-  <si>
-    <t>mmdj360@gmail.com</t>
-  </si>
-  <si>
-    <t>Xenwraith@gmail.com</t>
-  </si>
-  <si>
-    <t>Jordan Gray</t>
-  </si>
-  <si>
-    <t>jordancgray@hotmail.com</t>
-  </si>
-  <si>
-    <t>(647) 233-4244</t>
-  </si>
-  <si>
-    <t>416-737-7706 / 647-767-9601</t>
-  </si>
-  <si>
-    <t>416-738-3281</t>
-  </si>
-  <si>
-    <t>Drive</t>
-  </si>
-  <si>
-    <t>Syed Abdullah Hussain</t>
-  </si>
-  <si>
-    <t>abd_pisces@live.com</t>
-  </si>
-  <si>
-    <t>Dylan Leonard</t>
-  </si>
-  <si>
-    <t>647 783 6844</t>
-  </si>
-  <si>
-    <t>dy2_leonard@hotmail.com</t>
-  </si>
-  <si>
-    <t>Anisha Akhtar</t>
-  </si>
-  <si>
-    <t>York University</t>
-  </si>
-  <si>
-    <t>Fateh Hayer</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary School, Brampton</t>
-  </si>
-  <si>
-    <t>(647) 822-7274</t>
-  </si>
-  <si>
-    <t>Ascension of Our Lord</t>
-  </si>
-  <si>
-    <t>905 405 9413</t>
-  </si>
-  <si>
-    <t>905 612 8353</t>
-  </si>
-  <si>
-    <t>647-997-0852</t>
-  </si>
-  <si>
-    <t>Vigil Vincent</t>
-  </si>
-  <si>
-    <t>vigiljoe24@gmail.com</t>
-  </si>
-  <si>
-    <t>(437) 580-0905 / (905) 205-0304</t>
-  </si>
-  <si>
-    <t>aritankovic@gmail.com</t>
-  </si>
-  <si>
-    <t>Armin Tankovic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,74 +613,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -651,7 +629,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DE17D"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -929,53 +907,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -984,29 +962,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1015,613 +993,669 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>9054619350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="E26">
         <v>6474061810</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="E30">
         <v>9054860232</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="E31">
         <v>9059131216</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <v>9058907919</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <v>289232516</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E39">
         <v>4169535569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="B41" s="7" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E41">
         <v>4167233866</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="B42" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C43">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C44">
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>14</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="11" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="19">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C48">
         <v>13</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E50">
         <v>6478227275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="19">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="10">
+        <v>6476336597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="19">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="10">
+        <v>6473626012</v>
       </c>
     </row>
   </sheetData>
@@ -1641,8 +1675,10 @@
     <hyperlink ref="B43" r:id="rId12"/>
     <hyperlink ref="B46" r:id="rId13"/>
     <hyperlink ref="B47" r:id="rId14"/>
+    <hyperlink ref="B54" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1652,12 +1688,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1669,12 +1705,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="-20" windowWidth="13880" windowHeight="15220"/>
+    <workbookView xWindow="495" yWindow="-15" windowWidth="13875" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="152">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -493,6 +493,18 @@
   </si>
   <si>
     <t>Humza Pathan</t>
+  </si>
+  <si>
+    <t>Sher Khan</t>
+  </si>
+  <si>
+    <t>khansherr@gmail.com</t>
+  </si>
+  <si>
+    <t>UTM Liberal</t>
+  </si>
+  <si>
+    <t>647 833 8186 Number changing after Sept 15</t>
   </si>
 </sst>
 </file>
@@ -613,6 +625,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -629,7 +709,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="78DC78"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -907,19 +987,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1448,7 +1528,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16">
+    <row r="40" spans="1:5" ht="17.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -1492,7 +1572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16">
+    <row r="44" spans="1:5" ht="17.25">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -1526,7 +1606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19">
+    <row r="46" spans="1:5" ht="18.75">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +1620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="11" t="s">
         <v>15</v>
       </c>
@@ -1554,7 +1634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19">
+    <row r="48" spans="1:5" ht="18.75">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -1602,7 +1682,7 @@
         <v>6478227275</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19">
+    <row r="51" spans="1:5" ht="18.75">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1616,7 +1696,7 @@
         <v>6476336597</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="19">
+    <row r="52" spans="1:5" ht="18.75">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1630,7 +1710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="19">
+    <row r="53" spans="1:5" ht="18.75">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -1644,7 +1724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19">
+    <row r="54" spans="1:5" ht="18.75">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1656,6 +1736,20 @@
       </c>
       <c r="E54" s="10">
         <v>6473626012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1688,12 +1782,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1705,12 +1799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -135,15 +135,6 @@
     <t>Xenwraith@gmail.com</t>
   </si>
   <si>
-    <t>Jordan Gray</t>
-  </si>
-  <si>
-    <t>jordancgray@hotmail.com</t>
-  </si>
-  <si>
-    <t>(647) 233-4244</t>
-  </si>
-  <si>
     <t>416-737-7706 / 647-767-9601</t>
   </si>
   <si>
@@ -159,15 +150,6 @@
     <t>abd_pisces@live.com</t>
   </si>
   <si>
-    <t>Dylan Leonard</t>
-  </si>
-  <si>
-    <t>647 783 6844</t>
-  </si>
-  <si>
-    <t>dy2_leonard@hotmail.com</t>
-  </si>
-  <si>
     <t>Anisha Akhtar</t>
   </si>
   <si>
@@ -302,21 +284,6 @@
   </si>
   <si>
     <t>905-821-9984</t>
-  </si>
-  <si>
-    <t>inleonard22@gmail.com</t>
-  </si>
-  <si>
-    <t>MMYL</t>
-  </si>
-  <si>
-    <t>Alan Leonard</t>
-  </si>
-  <si>
-    <t>jz1998119@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jason Z</t>
   </si>
   <si>
     <t>289-633-2348</t>
@@ -505,6 +472,15 @@
   </si>
   <si>
     <t>647 833 8186 Number changing after Sept 15</t>
+  </si>
+  <si>
+    <t>Sarah Walji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarahwalji@gmail.com </t>
+  </si>
+  <si>
+    <t>McMaster University</t>
   </si>
 </sst>
 </file>
@@ -988,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1004,36 +980,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -1044,27 +1020,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1075,10 +1051,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -1087,12 +1063,12 @@
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1104,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1152,10 +1128,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1169,7 +1145,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
@@ -1206,7 +1182,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
@@ -1215,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
@@ -1223,7 +1199,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1232,10 +1208,10 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1246,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1269,13 +1245,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1292,464 +1268,413 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23">
+        <v>9054619350</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="E24">
+        <v>6474061810</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>71</v>
+      <c r="A25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25">
-        <v>9054619350</v>
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>127</v>
+      <c r="A26" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26">
-        <v>6474061810</v>
+        <v>130</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>80</v>
+      <c r="A27" t="s">
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
+      </c>
+      <c r="E28">
+        <v>9054860232</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
       <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29">
+        <v>9059131216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30">
-        <v>9054860232</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31">
-        <v>9059131216</v>
+        <v>119</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
       <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" t="s">
-        <v>133</v>
+      <c r="E34" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
+        <v>85</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>86</v>
+      </c>
+      <c r="E35">
+        <v>4169535569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25">
       <c r="A36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" t="s">
         <v>88</v>
       </c>
+      <c r="B36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
       <c r="D36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
       <c r="E37">
-        <v>9058907919</v>
+        <v>4167233866</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38">
-        <v>289232516</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
         <v>98</v>
-      </c>
-      <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39">
-        <v>4169535569</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41">
-        <v>4167233866</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
       <c r="B42" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5">
+      <c r="A43" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.25">
+        <v>18</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75">
       <c r="A44" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>107</v>
+      <c r="B44" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C44">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
       </c>
       <c r="C45">
-        <v>14</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.75">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46">
+        <v>6478227275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.75">
+      <c r="A47" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5">
-      <c r="A47" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>16</v>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="10">
+        <v>6476336597</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.75">
       <c r="A48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.75">
       <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50">
-        <v>6478227275</v>
+        <v>0</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="10">
+        <v>6473626012</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="10">
-        <v>6476336597</v>
+        <v>139</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.75">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.75">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="10">
-        <v>6473626012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.75">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1758,18 +1683,17 @@
     <hyperlink ref="B13" r:id="rId1"/>
     <hyperlink ref="B17" r:id="rId2"/>
     <hyperlink ref="B20" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4"/>
-    <hyperlink ref="B25" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B30" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="B39" r:id="rId9"/>
-    <hyperlink ref="B41" r:id="rId10"/>
-    <hyperlink ref="B42" r:id="rId11"/>
-    <hyperlink ref="B43" r:id="rId12"/>
-    <hyperlink ref="B46" r:id="rId13"/>
-    <hyperlink ref="B47" r:id="rId14"/>
-    <hyperlink ref="B54" r:id="rId15"/>
+    <hyperlink ref="B23" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId7"/>
+    <hyperlink ref="B35" r:id="rId8"/>
+    <hyperlink ref="B37" r:id="rId9"/>
+    <hyperlink ref="B38" r:id="rId10"/>
+    <hyperlink ref="B39" r:id="rId11"/>
+    <hyperlink ref="B42" r:id="rId12"/>
+    <hyperlink ref="B43" r:id="rId13"/>
+    <hyperlink ref="B50" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -481,6 +481,24 @@
   </si>
   <si>
     <t>McMaster University</t>
+  </si>
+  <si>
+    <t>647 542 4939</t>
+  </si>
+  <si>
+    <t>Laraib</t>
+  </si>
+  <si>
+    <t>William Lam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lam.william151@gmail.com </t>
+  </si>
+  <si>
+    <t>laraib486@hotmail.com</t>
+  </si>
+  <si>
+    <t>(647) 280-2192</t>
   </si>
 </sst>
 </file>
@@ -964,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1675,6 +1693,37 @@
       </c>
       <c r="D52" s="10" t="s">
         <v>143</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.75">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53">
+        <v>6477195000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75">
+      <c r="A54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1694,6 +1743,7 @@
     <hyperlink ref="B42" r:id="rId12"/>
     <hyperlink ref="B43" r:id="rId13"/>
     <hyperlink ref="B50" r:id="rId14"/>
+    <hyperlink ref="B53" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="154">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -499,6 +499,18 @@
   </si>
   <si>
     <t>(647) 280-2192</t>
+  </si>
+  <si>
+    <t>6477195000 / 9054059413</t>
+  </si>
+  <si>
+    <t>Faraz</t>
+  </si>
+  <si>
+    <t>faraz_tahir@hotmail.com</t>
+  </si>
+  <si>
+    <t>Phone Canvasser?</t>
   </si>
 </sst>
 </file>
@@ -982,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1708,8 +1720,8 @@
       <c r="D53" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E53">
-        <v>6477195000</v>
+      <c r="E53" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75">
@@ -1724,6 +1736,20 @@
       </c>
       <c r="E54" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55">
+        <v>6475206843</v>
       </c>
     </row>
   </sheetData>
@@ -1744,6 +1770,7 @@
     <hyperlink ref="B43" r:id="rId13"/>
     <hyperlink ref="B50" r:id="rId14"/>
     <hyperlink ref="B53" r:id="rId15"/>
+    <hyperlink ref="B55" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -511,6 +511,15 @@
   </si>
   <si>
     <t>Phone Canvasser?</t>
+  </si>
+  <si>
+    <t>Kayla Beckford</t>
+  </si>
+  <si>
+    <t>k.beckford@live.ca</t>
+  </si>
+  <si>
+    <t>Humber College</t>
   </si>
 </sst>
 </file>
@@ -994,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1750,6 +1759,20 @@
       </c>
       <c r="E55">
         <v>6475206843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56">
+        <v>6477218251</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="160">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>Gordon Graydon Memorial Secondary School</t>
-  </si>
-  <si>
-    <t>(647) 502-3605</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>905-956-2182</t>
@@ -520,6 +516,18 @@
   </si>
   <si>
     <t>Humber College</t>
+  </si>
+  <si>
+    <t>(647) 502-3605 / 647 454 2676</t>
+  </si>
+  <si>
+    <t>alanac326@hotmail.com</t>
+  </si>
+  <si>
+    <t>Alana Chen</t>
+  </si>
+  <si>
+    <t>(647) 389-1785</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1019,16 +1027,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" t="s">
-        <v>125</v>
-      </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -1039,16 +1047,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -1059,16 +1067,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>37</v>
@@ -1076,10 +1084,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1090,10 +1098,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
         <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -1102,12 +1110,12 @@
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1167,10 +1175,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1184,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
@@ -1290,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1319,7 +1327,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>65</v>
@@ -1328,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>9054619350</v>
@@ -1336,7 +1344,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
@@ -1345,7 +1353,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>6474061810</v>
@@ -1353,58 +1361,58 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
       </c>
       <c r="C25">
         <v>17</v>
       </c>
       <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
         <v>102</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
         <v>107</v>
-      </c>
-      <c r="D28" t="s">
-        <v>108</v>
       </c>
       <c r="E28">
         <v>9054860232</v>
@@ -1412,7 +1420,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29">
         <v>9059131216</v>
@@ -1420,62 +1428,62 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
         <v>109</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
         <v>85</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
       </c>
       <c r="E35">
         <v>4169535569</v>
@@ -1483,24 +1491,24 @@
     </row>
     <row r="36" spans="1:5" ht="17.25">
       <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
         <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <v>4167233866</v>
@@ -1508,35 +1516,35 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.25">
       <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
@@ -1556,7 +1564,7 @@
         <v>71</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.75">
@@ -1589,10 +1597,10 @@
     </row>
     <row r="44" spans="1:5" ht="18.75">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44">
         <v>13</v>
@@ -1629,7 +1637,7 @@
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46">
         <v>6478227275</v>
@@ -1693,69 +1701,69 @@
     </row>
     <row r="51" spans="1:5" ht="18.75">
       <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
         <v>137</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" t="s">
         <v>139</v>
-      </c>
-      <c r="E51" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75">
       <c r="A52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
         <v>141</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" t="s">
         <v>143</v>
-      </c>
-      <c r="E52" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75">
       <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
         <v>146</v>
       </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
       <c r="D54" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75">
       <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="E55">
         <v>6475206843</v>
@@ -1763,16 +1771,30 @@
     </row>
     <row r="56" spans="1:5" ht="18.75">
       <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
         <v>154</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="E56">
         <v>6477218251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.75">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="-15" windowWidth="13875" windowHeight="11760"/>
+    <workbookView xWindow="-40" yWindow="-80" windowWidth="21340" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,246 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
-  <si>
-    <t>Zakira</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>karbaryz@gmail.com</t>
-  </si>
-  <si>
-    <t>dezaya.joseph@hotmail.com </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hspathan13@gmail.com</t>
-  </si>
-  <si>
-    <t>David Leeder Middle School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasra Nadeem </t>
-  </si>
-  <si>
-    <t>nasra.nadeem@hotmail.com</t>
-  </si>
-  <si>
-    <t>Uswa Zahoor</t>
-  </si>
-  <si>
-    <t>uswa.zahoor@hotmail.ca</t>
-  </si>
-  <si>
-    <t>Glenforest Secondary School</t>
-  </si>
-  <si>
-    <t>Michael Jackman</t>
-  </si>
-  <si>
-    <t>michaelericjackman@gmail.com</t>
-  </si>
-  <si>
-    <t>Ayesha Faizi</t>
-  </si>
-  <si>
-    <t>Ali Turab Lotia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aliturablotia@gmail.com</t>
-  </si>
-  <si>
-    <t>Paul Konieczny</t>
-  </si>
-  <si>
-    <t>647-217-2793</t>
-  </si>
-  <si>
-    <t>pkonieczny@rogers.com</t>
-  </si>
-  <si>
-    <t>UTM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ayesha.f13@gmail.com</t>
-  </si>
-  <si>
-    <t>Vivian Li</t>
-  </si>
-  <si>
-    <t>vivi881121@gmail.com</t>
-  </si>
-  <si>
-    <t>Diya</t>
-  </si>
-  <si>
-    <t>diyakamath@yahoo.ca</t>
-  </si>
-  <si>
-    <t>Stephen Lewis Secondary</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>annie.195@hotmail.com</t>
-  </si>
-  <si>
-    <t>fatehhayer1999@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hawkstar@live.ca</t>
-  </si>
-  <si>
-    <t>mikayla_december@outlook.com</t>
-  </si>
-  <si>
-    <t>imranshaista@hotmail.com</t>
-  </si>
-  <si>
-    <t>sundaram_balas@yahoo.ca</t>
-  </si>
-  <si>
-    <t>taimoorgul98@gmail.com</t>
-  </si>
-  <si>
-    <t>mmdj360@gmail.com</t>
-  </si>
-  <si>
-    <t>Xenwraith@gmail.com</t>
-  </si>
-  <si>
-    <t>416-737-7706 / 647-767-9601</t>
-  </si>
-  <si>
-    <t>416-738-3281</t>
-  </si>
-  <si>
-    <t>Drive</t>
-  </si>
-  <si>
-    <t>Syed Abdullah Hussain</t>
-  </si>
-  <si>
-    <t>abd_pisces@live.com</t>
-  </si>
-  <si>
-    <t>Anisha Akhtar</t>
-  </si>
-  <si>
-    <t>York University</t>
-  </si>
-  <si>
-    <t>Fateh Hayer</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary School, Brampton</t>
-  </si>
-  <si>
-    <t>(647) 822-7274</t>
-  </si>
-  <si>
-    <t>Ascension of Our Lord</t>
-  </si>
-  <si>
-    <t>905 405 9413</t>
-  </si>
-  <si>
-    <t>905 612 8353</t>
-  </si>
-  <si>
-    <t>647-997-0852</t>
-  </si>
-  <si>
-    <t>Vigil Vincent</t>
-  </si>
-  <si>
-    <t>vigiljoe24@gmail.com</t>
-  </si>
-  <si>
-    <t>(437) 580-0905 / (905) 205-0304</t>
-  </si>
-  <si>
-    <t>aritankovic@gmail.com</t>
-  </si>
-  <si>
-    <t>Armin Tankovic</t>
-  </si>
-  <si>
-    <t>Dezaya Joseph</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brandon Prakash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pabdeep</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lincoln Alexander Secondary School. </t>
-  </si>
-  <si>
-    <t>brandon.prakash@hotmail.com</t>
-  </si>
-  <si>
-    <t> 905 678 6526</t>
-  </si>
-  <si>
-    <t>905 956 1163</t>
-  </si>
-  <si>
-    <t>Lincoln Alexander Secondary School. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>panesar.panesar@gmail.com</t>
-  </si>
-  <si>
-    <t>St. Joseph</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jetaix01@yahoo.ca</t>
-  </si>
-  <si>
-    <t>fawaddv@gmail.com</t>
-  </si>
-  <si>
-    <t>Taimoor</t>
-  </si>
-  <si>
-    <t>647-300-0101 / 647 960 1002</t>
-  </si>
-  <si>
-    <t>tanvi1111@hotmail.com</t>
-  </si>
-  <si>
-    <t>Tanvi Mehta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gordon Graydon Memorial Secondary School</t>
-  </si>
-  <si>
-    <t>(647) 502-3605</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>905-956-2182</t>
-  </si>
-  <si>
-    <t>Drishti Thakkar</t>
-  </si>
-  <si>
-    <t>drishti.thakkar@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="151">
   <si>
     <t>Port Credit Secondary</t>
   </si>
@@ -499,6 +260,249 @@
   </si>
   <si>
     <t>(647) 280-2192</t>
+  </si>
+  <si>
+    <t>Guelph Humber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zakira</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>karbaryz@gmail.com</t>
+  </si>
+  <si>
+    <t>dezaya.joseph@hotmail.com </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hspathan13@gmail.com</t>
+  </si>
+  <si>
+    <t>David Leeder Middle School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasra Nadeem </t>
+  </si>
+  <si>
+    <t>nasra.nadeem@hotmail.com</t>
+  </si>
+  <si>
+    <t>Uswa Zahoor</t>
+  </si>
+  <si>
+    <t>uswa.zahoor@hotmail.ca</t>
+  </si>
+  <si>
+    <t>Glenforest Secondary School</t>
+  </si>
+  <si>
+    <t>Michael Jackman</t>
+  </si>
+  <si>
+    <t>michaelericjackman@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayesha Faizi</t>
+  </si>
+  <si>
+    <t>Ali Turab Lotia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliturablotia@gmail.com</t>
+  </si>
+  <si>
+    <t>Paul Konieczny</t>
+  </si>
+  <si>
+    <t>647-217-2793</t>
+  </si>
+  <si>
+    <t>pkonieczny@rogers.com</t>
+  </si>
+  <si>
+    <t>UTM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayesha.f13@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivian Li</t>
+  </si>
+  <si>
+    <t>vivi881121@gmail.com</t>
+  </si>
+  <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>diyakamath@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Stephen Lewis Secondary</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>annie.195@hotmail.com</t>
+  </si>
+  <si>
+    <t>fatehhayer1999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hawkstar@live.ca</t>
+  </si>
+  <si>
+    <t>mikayla_december@outlook.com</t>
+  </si>
+  <si>
+    <t>imranshaista@hotmail.com</t>
+  </si>
+  <si>
+    <t>sundaram_balas@yahoo.ca</t>
+  </si>
+  <si>
+    <t>taimoorgul98@gmail.com</t>
+  </si>
+  <si>
+    <t>mmdj360@gmail.com</t>
+  </si>
+  <si>
+    <t>Xenwraith@gmail.com</t>
+  </si>
+  <si>
+    <t>416-737-7706 / 647-767-9601</t>
+  </si>
+  <si>
+    <t>416-738-3281</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Syed Abdullah Hussain</t>
+  </si>
+  <si>
+    <t>abd_pisces@live.com</t>
+  </si>
+  <si>
+    <t>Anisha Akhtar</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>Fateh Hayer</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary School, Brampton</t>
+  </si>
+  <si>
+    <t>(647) 822-7274</t>
+  </si>
+  <si>
+    <t>Ascension of Our Lord</t>
+  </si>
+  <si>
+    <t>905 405 9413</t>
+  </si>
+  <si>
+    <t>905 612 8353</t>
+  </si>
+  <si>
+    <t>647-997-0852</t>
+  </si>
+  <si>
+    <t>Vigil Vincent</t>
+  </si>
+  <si>
+    <t>vigiljoe24@gmail.com</t>
+  </si>
+  <si>
+    <t>(437) 580-0905 / (905) 205-0304</t>
+  </si>
+  <si>
+    <t>aritankovic@gmail.com</t>
+  </si>
+  <si>
+    <t>Armin Tankovic</t>
+  </si>
+  <si>
+    <t>Dezaya Joseph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandon Prakash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pabdeep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lincoln Alexander Secondary School. </t>
+  </si>
+  <si>
+    <t>brandon.prakash@hotmail.com</t>
+  </si>
+  <si>
+    <t> 905 678 6526</t>
+  </si>
+  <si>
+    <t>905 956 1163</t>
+  </si>
+  <si>
+    <t>Lincoln Alexander Secondary School. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panesar.panesar@gmail.com</t>
+  </si>
+  <si>
+    <t>St. Joseph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jetaix01@yahoo.ca</t>
+  </si>
+  <si>
+    <t>fawaddv@gmail.com</t>
+  </si>
+  <si>
+    <t>Taimoor</t>
+  </si>
+  <si>
+    <t>647-300-0101 / 647 960 1002</t>
+  </si>
+  <si>
+    <t>tanvi1111@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tanvi Mehta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordon Graydon Memorial Secondary School</t>
+  </si>
+  <si>
+    <t>(647) 502-3605</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>905-956-2182</t>
+  </si>
+  <si>
+    <t>Drishti Thakkar</t>
+  </si>
+  <si>
+    <t>drishti.thakkar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -619,74 +623,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -703,7 +639,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="78DC78"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -981,53 +917,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -1038,27 +974,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1069,50 +1005,50 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
@@ -1120,16 +1056,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
@@ -1137,33 +1073,33 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
@@ -1171,16 +1107,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
@@ -1188,10 +1124,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1200,16 +1136,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
@@ -1217,79 +1153,79 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -1298,16 +1234,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>9054619350</v>
@@ -1315,16 +1251,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>6474061810</v>
@@ -1332,58 +1268,58 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>9054860232</v>
@@ -1391,7 +1327,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>9059131216</v>
@@ -1399,87 +1335,87 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>4169535569</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="7" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>4167233866</v>
@@ -1487,243 +1423,243 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C41">
         <v>14</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18.75">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="19">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="11" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.75">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>13</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C45">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
         <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" t="s">
-        <v>130</v>
       </c>
       <c r="E46">
         <v>6478227275</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.75">
+    <row r="47" spans="1:5" ht="19">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="E47" s="10">
         <v>6476336597</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.75">
+    <row r="48" spans="1:5" ht="19">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="19">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.75">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="E50" s="10">
         <v>6473626012</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75">
+    <row r="51" spans="1:5" ht="19">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E53">
         <v>6477195000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75">
+    <row r="54" spans="1:5" ht="19">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1682,6 @@
     <hyperlink ref="B53" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1756,12 +1691,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1773,12 +1708,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="163">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -528,6 +528,15 @@
   </si>
   <si>
     <t>(647) 389-1785</t>
+  </si>
+  <si>
+    <t>Brand Yu</t>
+  </si>
+  <si>
+    <t>Yiqi Yu &lt;brand0857@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>UTM Graduate</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1795,6 +1804,20 @@
       </c>
       <c r="E57" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.75">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58">
+        <v>6478852770</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="165">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -537,6 +537,12 @@
   </si>
   <si>
     <t>UTM Graduate</t>
+  </si>
+  <si>
+    <t>Dene Pellington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dene1998@hotmail.com </t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1818,6 +1824,20 @@
       </c>
       <c r="E58">
         <v>6478852770</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.75">
+      <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>6472303827</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
+  <si>
+    <t>(647) 721-8251</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dezaya.joseph@hotmail.com </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hspathan13@gmail.com</t>
+  </si>
+  <si>
+    <t>David Leeder Middle School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasra Nadeem </t>
+  </si>
+  <si>
+    <t>nasra.nadeem@hotmail.com</t>
+  </si>
+  <si>
+    <t>Uswa Zahoor</t>
+  </si>
+  <si>
+    <t>uswa.zahoor@hotmail.ca</t>
+  </si>
+  <si>
+    <t>Glenforest Secondary School</t>
+  </si>
+  <si>
+    <t>Michael Jackman</t>
+  </si>
+  <si>
+    <t>michaelericjackman@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayesha Faizi</t>
+  </si>
+  <si>
+    <t>Ali Turab Lotia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliturablotia@gmail.com</t>
+  </si>
+  <si>
+    <t>Paul Konieczny</t>
+  </si>
+  <si>
+    <t>647-217-2793</t>
+  </si>
+  <si>
+    <t>pkonieczny@rogers.com</t>
+  </si>
+  <si>
+    <t>UTM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayesha.f13@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivian Li</t>
+  </si>
+  <si>
+    <t>vivi881121@gmail.com</t>
+  </si>
+  <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>diyakamath@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Stephen Lewis Secondary</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>annie.195@hotmail.com</t>
+  </si>
+  <si>
+    <t>fatehhayer1999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hawkstar@live.ca</t>
+  </si>
+  <si>
+    <t>mikayla_december@outlook.com</t>
+  </si>
+  <si>
+    <t>imranshaista@hotmail.com</t>
+  </si>
+  <si>
+    <t>sundaram_balas@yahoo.ca</t>
+  </si>
+  <si>
+    <t>taimoorgul98@gmail.com</t>
+  </si>
+  <si>
+    <t>mmdj360@gmail.com</t>
+  </si>
+  <si>
+    <t>Xenwraith@gmail.com</t>
+  </si>
+  <si>
+    <t>416-737-7706 / 647-767-9601</t>
+  </si>
+  <si>
+    <t>416-738-3281</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Syed Abdullah Hussain</t>
+  </si>
+  <si>
+    <t>abd_pisces@live.com</t>
+  </si>
+  <si>
+    <t>Anisha Akhtar</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>Fateh Hayer</t>
+  </si>
+  <si>
+    <t>David Suzuki Secondary School, Brampton</t>
+  </si>
+  <si>
+    <t>(647) 822-7274</t>
+  </si>
+  <si>
+    <t>Ascension of Our Lord</t>
+  </si>
+  <si>
+    <t>905 405 9413</t>
+  </si>
+  <si>
+    <t>905 612 8353</t>
+  </si>
+  <si>
+    <t>647-997-0852</t>
+  </si>
+  <si>
+    <t>Vigil Vincent</t>
+  </si>
+  <si>
+    <t>vigiljoe24@gmail.com</t>
+  </si>
+  <si>
+    <t>(437) 580-0905 / (905) 205-0304</t>
+  </si>
+  <si>
+    <t>aritankovic@gmail.com</t>
+  </si>
+  <si>
+    <t>Armin Tankovic</t>
+  </si>
+  <si>
+    <t>Dezaya Joseph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandon Prakash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pabdeep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lincoln Alexander Secondary School. </t>
+  </si>
+  <si>
+    <t>brandon.prakash@hotmail.com</t>
+  </si>
+  <si>
+    <t> 905 678 6526</t>
+  </si>
+  <si>
+    <t>905 956 1163</t>
+  </si>
+  <si>
+    <t>Lincoln Alexander Secondary School. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panesar.panesar@gmail.com</t>
+  </si>
+  <si>
+    <t>St. Joseph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jetaix01@yahoo.ca</t>
+  </si>
+  <si>
+    <t>fawaddv@gmail.com</t>
+  </si>
+  <si>
+    <t>Taimoor</t>
+  </si>
+  <si>
+    <t>647-300-0101 / 647 960 1002</t>
+  </si>
+  <si>
+    <t>tanvi1111@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tanvi Mehta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordon Graydon Memorial Secondary School</t>
+  </si>
+  <si>
+    <t>(647) 502-3605</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>905-956-2182</t>
+  </si>
+  <si>
+    <t>Drishti Thakkar</t>
+  </si>
+  <si>
+    <t>drishti.thakkar@gmail.com</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>k.beckford@live.ca</t>
+  </si>
   <si>
     <t>Port Credit Secondary</t>
   </si>
@@ -271,238 +514,6 @@
   </si>
   <si>
     <t>karbaryz@gmail.com</t>
-  </si>
-  <si>
-    <t>dezaya.joseph@hotmail.com </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hspathan13@gmail.com</t>
-  </si>
-  <si>
-    <t>David Leeder Middle School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasra Nadeem </t>
-  </si>
-  <si>
-    <t>nasra.nadeem@hotmail.com</t>
-  </si>
-  <si>
-    <t>Uswa Zahoor</t>
-  </si>
-  <si>
-    <t>uswa.zahoor@hotmail.ca</t>
-  </si>
-  <si>
-    <t>Glenforest Secondary School</t>
-  </si>
-  <si>
-    <t>Michael Jackman</t>
-  </si>
-  <si>
-    <t>michaelericjackman@gmail.com</t>
-  </si>
-  <si>
-    <t>Ayesha Faizi</t>
-  </si>
-  <si>
-    <t>Ali Turab Lotia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aliturablotia@gmail.com</t>
-  </si>
-  <si>
-    <t>Paul Konieczny</t>
-  </si>
-  <si>
-    <t>647-217-2793</t>
-  </si>
-  <si>
-    <t>pkonieczny@rogers.com</t>
-  </si>
-  <si>
-    <t>UTM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ayesha.f13@gmail.com</t>
-  </si>
-  <si>
-    <t>Vivian Li</t>
-  </si>
-  <si>
-    <t>vivi881121@gmail.com</t>
-  </si>
-  <si>
-    <t>Diya</t>
-  </si>
-  <si>
-    <t>diyakamath@yahoo.ca</t>
-  </si>
-  <si>
-    <t>Stephen Lewis Secondary</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>annie.195@hotmail.com</t>
-  </si>
-  <si>
-    <t>fatehhayer1999@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hawkstar@live.ca</t>
-  </si>
-  <si>
-    <t>mikayla_december@outlook.com</t>
-  </si>
-  <si>
-    <t>imranshaista@hotmail.com</t>
-  </si>
-  <si>
-    <t>sundaram_balas@yahoo.ca</t>
-  </si>
-  <si>
-    <t>taimoorgul98@gmail.com</t>
-  </si>
-  <si>
-    <t>mmdj360@gmail.com</t>
-  </si>
-  <si>
-    <t>Xenwraith@gmail.com</t>
-  </si>
-  <si>
-    <t>416-737-7706 / 647-767-9601</t>
-  </si>
-  <si>
-    <t>416-738-3281</t>
-  </si>
-  <si>
-    <t>Drive</t>
-  </si>
-  <si>
-    <t>Syed Abdullah Hussain</t>
-  </si>
-  <si>
-    <t>abd_pisces@live.com</t>
-  </si>
-  <si>
-    <t>Anisha Akhtar</t>
-  </si>
-  <si>
-    <t>York University</t>
-  </si>
-  <si>
-    <t>Fateh Hayer</t>
-  </si>
-  <si>
-    <t>David Suzuki Secondary School, Brampton</t>
-  </si>
-  <si>
-    <t>(647) 822-7274</t>
-  </si>
-  <si>
-    <t>Ascension of Our Lord</t>
-  </si>
-  <si>
-    <t>905 405 9413</t>
-  </si>
-  <si>
-    <t>905 612 8353</t>
-  </si>
-  <si>
-    <t>647-997-0852</t>
-  </si>
-  <si>
-    <t>Vigil Vincent</t>
-  </si>
-  <si>
-    <t>vigiljoe24@gmail.com</t>
-  </si>
-  <si>
-    <t>(437) 580-0905 / (905) 205-0304</t>
-  </si>
-  <si>
-    <t>aritankovic@gmail.com</t>
-  </si>
-  <si>
-    <t>Armin Tankovic</t>
-  </si>
-  <si>
-    <t>Dezaya Joseph</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brandon Prakash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pabdeep</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lincoln Alexander Secondary School. </t>
-  </si>
-  <si>
-    <t>brandon.prakash@hotmail.com</t>
-  </si>
-  <si>
-    <t> 905 678 6526</t>
-  </si>
-  <si>
-    <t>905 956 1163</t>
-  </si>
-  <si>
-    <t>Lincoln Alexander Secondary School. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>panesar.panesar@gmail.com</t>
-  </si>
-  <si>
-    <t>St. Joseph</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jetaix01@yahoo.ca</t>
-  </si>
-  <si>
-    <t>fawaddv@gmail.com</t>
-  </si>
-  <si>
-    <t>Taimoor</t>
-  </si>
-  <si>
-    <t>647-300-0101 / 647 960 1002</t>
-  </si>
-  <si>
-    <t>tanvi1111@hotmail.com</t>
-  </si>
-  <si>
-    <t>Tanvi Mehta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gordon Graydon Memorial Secondary School</t>
-  </si>
-  <si>
-    <t>(647) 502-3605</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>905-956-2182</t>
-  </si>
-  <si>
-    <t>Drishti Thakkar</t>
-  </si>
-  <si>
-    <t>drishti.thakkar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -918,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -934,36 +945,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -974,27 +985,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1005,50 +1016,50 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
@@ -1056,16 +1067,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
@@ -1073,33 +1084,33 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
@@ -1107,16 +1118,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
@@ -1124,10 +1135,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1136,16 +1147,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
@@ -1153,79 +1164,79 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -1234,16 +1245,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E23">
         <v>9054619350</v>
@@ -1251,16 +1262,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E24">
         <v>6474061810</v>
@@ -1268,58 +1279,58 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E28">
         <v>9054860232</v>
@@ -1327,7 +1338,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="E29">
         <v>9059131216</v>
@@ -1335,62 +1346,62 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <v>4169535569</v>
@@ -1398,24 +1409,24 @@
     </row>
     <row r="36" spans="1:5" ht="16">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E37">
         <v>4167233866</v>
@@ -1423,128 +1434,128 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C39">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="C41">
         <v>14</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16">
       <c r="A43" s="11" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C44">
         <v>13</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E46">
         <v>6478227275</v>
@@ -1552,13 +1563,13 @@
     </row>
     <row r="47" spans="1:5" ht="19">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E47" s="10">
         <v>6476336597</v>
@@ -1566,41 +1577,41 @@
     </row>
     <row r="48" spans="1:5" ht="19">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E50" s="10">
         <v>6473626012</v>
@@ -1608,41 +1619,41 @@
     </row>
     <row r="51" spans="1:5" ht="19">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="E53">
         <v>6477195000</v>
@@ -1650,16 +1661,27 @@
     </row>
     <row r="54" spans="1:5" ht="19">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>73</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1680,6 +1702,7 @@
     <hyperlink ref="B43" r:id="rId13"/>
     <hyperlink ref="B50" r:id="rId14"/>
     <hyperlink ref="B53" r:id="rId15"/>
+    <hyperlink ref="B55" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="-80" windowWidth="21340" windowHeight="13300"/>
+    <workbookView xWindow="495" yWindow="-15" windowWidth="13875" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
-  <si>
-    <t>(647) 721-8251</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="165">
+  <si>
+    <t>Zakira</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>karbaryz@gmail.com</t>
   </si>
   <si>
     <t>dezaya.joseph@hotmail.com </t>
@@ -246,10 +249,6 @@
     <t>Gordon Graydon Memorial Secondary School</t>
   </si>
   <si>
-    <t>(647) 502-3605</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>905-956-2182</t>
   </si>
   <si>
@@ -257,13 +256,6 @@
   </si>
   <si>
     <t>drishti.thakkar@gmail.com</t>
-  </si>
-  <si>
-    <t>Kayla</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>k.beckford@live.ca</t>
   </si>
   <si>
     <t>Port Credit Secondary</t>
@@ -505,15 +497,52 @@
     <t>(647) 280-2192</t>
   </si>
   <si>
-    <t>Guelph Humber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zakira</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>karbaryz@gmail.com</t>
+    <t>6477195000 / 9054059413</t>
+  </si>
+  <si>
+    <t>Faraz</t>
+  </si>
+  <si>
+    <t>faraz_tahir@hotmail.com</t>
+  </si>
+  <si>
+    <t>Phone Canvasser?</t>
+  </si>
+  <si>
+    <t>Kayla Beckford</t>
+  </si>
+  <si>
+    <t>k.beckford@live.ca</t>
+  </si>
+  <si>
+    <t>Humber College</t>
+  </si>
+  <si>
+    <t>(647) 502-3605 / 647 454 2676</t>
+  </si>
+  <si>
+    <t>alanac326@hotmail.com</t>
+  </si>
+  <si>
+    <t>Alana Chen</t>
+  </si>
+  <si>
+    <t>(647) 389-1785</t>
+  </si>
+  <si>
+    <t>Brand Yu</t>
+  </si>
+  <si>
+    <t>Yiqi Yu &lt;brand0857@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>UTM Graduate</t>
+  </si>
+  <si>
+    <t>Dene Pellington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dene1998@hotmail.com </t>
   </si>
 </sst>
 </file>
@@ -634,6 +663,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,7 +747,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="78DC78"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -928,53 +1025,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>126</v>
-      </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>6472445427</v>
@@ -985,27 +1082,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1016,50 +1113,50 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>6478600426</v>
@@ -1067,16 +1164,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>6477678445</v>
@@ -1084,33 +1181,33 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2">
         <v>4166711521</v>
@@ -1118,16 +1215,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>6478295824</v>
@@ -1135,10 +1232,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1147,16 +1244,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2">
         <v>9056731538</v>
@@ -1164,56 +1261,56 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>72</v>
@@ -1221,22 +1318,22 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -1245,16 +1342,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>9054619350</v>
@@ -1262,16 +1359,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>6474061810</v>
@@ -1288,49 +1385,49 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28">
         <v>9054860232</v>
@@ -1338,7 +1435,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E29">
         <v>9059131216</v>
@@ -1346,87 +1443,87 @@
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
         <v>110</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35">
         <v>4169535569</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16">
+    <row r="36" spans="1:5" ht="17.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <v>4167233866</v>
@@ -1434,254 +1531,313 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="C41">
         <v>14</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5">
+      <c r="A43" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16">
-      <c r="A43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="19">
+    </row>
+    <row r="44" spans="1:5" ht="18.75">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44">
         <v>13</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E46">
         <v>6478227275</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19">
+    <row r="47" spans="1:5" ht="18.75">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E47" s="10">
         <v>6476336597</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19">
+    <row r="48" spans="1:5" ht="18.75">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="19">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
       <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="19">
+    </row>
+    <row r="50" spans="1:5" ht="18.75">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E50" s="10">
         <v>6473626012</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19">
+    <row r="51" spans="1:5" ht="18.75">
       <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E51" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="10" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="18.75">
+      <c r="A52" t="s">
         <v>140</v>
       </c>
-      <c r="E51" t="s">
+      <c r="B52" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="19">
-      <c r="A52" t="s">
+      <c r="D52" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B52" t="s">
+      <c r="E52" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="10" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="18.75">
+      <c r="A53" t="s">
         <v>144</v>
       </c>
-      <c r="E52" t="s">
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75">
+      <c r="A54" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="19">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="D54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E53">
-        <v>6477195000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="19">
-      <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" t="s">
-        <v>0</v>
+      <c r="D55" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55">
+        <v>6475206843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56">
+        <v>6477218251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.75">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.75">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58">
+        <v>6478852770</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.75">
+      <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>6472303827</v>
       </c>
     </row>
   </sheetData>
@@ -1705,6 +1861,7 @@
     <hyperlink ref="B55" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1714,12 +1871,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1731,12 +1888,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t xml:space="preserve">dene1998@hotmail.com </t>
+  </si>
+  <si>
+    <t>saitejavankadari2009@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1838,6 +1841,14 @@
       </c>
       <c r="E59">
         <v>6472303827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.75">
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>saitejavankadari2009@gmail.com</t>
+  </si>
+  <si>
+    <t>BROKE HIS LEG</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1041,6 +1044,7 @@
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1465,7 +1469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25">
+    <row r="36" spans="1:6" ht="17.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="B37" s="7" t="s">
         <v>91</v>
       </c>
@@ -1532,12 +1536,12 @@
         <v>4167233866</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="B38" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25">
+    <row r="40" spans="1:6" ht="17.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.75">
+    <row r="42" spans="1:6" ht="18.75">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:6" ht="16.5">
       <c r="A43" s="11" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75">
+    <row r="44" spans="1:6" ht="18.75">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>6478227275</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.75">
+    <row r="47" spans="1:6" ht="18.75">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1675,7 +1679,7 @@
         <v>6476336597</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.75">
+    <row r="48" spans="1:6" ht="18.75">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1687,6 +1691,9 @@
       </c>
       <c r="E48" s="10" t="s">
         <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75">

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="171">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -549,6 +549,18 @@
   </si>
   <si>
     <t>BROKE HIS LEG</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Janarth Kulenthiran</t>
+  </si>
+  <si>
+    <t>kulenthirankk@hotmail.com</t>
+  </si>
+  <si>
+    <t>905-813-9777 / 4167329912</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1851,11 +1863,31 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
       <c r="B60" t="s">
         <v>165</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>46</v>
+      </c>
+      <c r="E60">
+        <v>6477798466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.75">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="-15" windowWidth="13875" windowHeight="11760"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="175">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -561,13 +561,25 @@
   </si>
   <si>
     <t>905-813-9777 / 4167329912</t>
+  </si>
+  <si>
+    <t>Aman Gill</t>
+  </si>
+  <si>
+    <t>hmeet_5@hotmail.com</t>
+  </si>
+  <si>
+    <t>647 825 6909</t>
+  </si>
+  <si>
+    <t>St Francis Xavier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,14 +1055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
@@ -1059,7 +1071,7 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -1147,7 +1159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1210,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1249,7 +1261,7 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1273,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1306,25 +1318,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1335,19 +1347,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1359,7 +1371,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>9054619350</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>9054860232</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>113</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>9059131216</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>114</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>118</v>
       </c>
@@ -1476,12 +1488,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25">
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1540,7 +1552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>91</v>
       </c>
@@ -1548,12 +1560,12 @@
         <v>4167233866</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1567,7 +1579,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25">
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1584,7 +1596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75">
+    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1615,7 +1627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5">
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75">
+    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>6478227275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75">
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>6476336597</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75">
+    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75">
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1722,7 +1734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75">
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>6473626012</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75">
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75">
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -1764,7 +1776,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75">
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>144</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75">
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -1792,7 +1804,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75">
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>6475206843</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75">
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -1820,7 +1832,7 @@
         <v>6477218251</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75">
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.75">
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>160</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>6478852770</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75">
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>6472303827</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75">
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -1876,7 +1888,7 @@
         <v>6477798466</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75">
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -1888,6 +1900,20 @@
       </c>
       <c r="E61" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1921,12 +1947,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1938,12 +1964,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/campaign/VolunteerInformation.xlsx
+++ b/campaign/VolunteerInformation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="-15" windowWidth="13875" windowHeight="11760"/>
+    <workbookView xWindow="492" yWindow="-12" windowWidth="13872" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
   <si>
     <t>Zakira</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -573,13 +573,19 @@
   </si>
   <si>
     <t>St Francis Xavier</t>
+  </si>
+  <si>
+    <t>Mahad Amir</t>
+  </si>
+  <si>
+    <t>mahad.amir@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +650,12 @@
       <color indexed="21"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="63"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -666,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -686,6 +698,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,77 +706,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -777,7 +725,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="78DC78"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -812,7 +760,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -847,7 +795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1056,22 +1004,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -1091,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -1111,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1128,7 +1076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1142,7 +1090,7 @@
         <v>4165621762</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -1159,7 +1107,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -1176,7 +1124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1141,7 @@
         <v>6478600426</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1158,7 @@
         <v>6477678445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1192,7 @@
         <v>4166711521</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1261,7 +1209,7 @@
         <v>6478295824</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1221,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1290,7 +1238,7 @@
         <v>9056731538</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1307,7 +1255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1318,25 +1266,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1347,19 +1295,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1371,7 +1319,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -1388,7 +1336,7 @@
         <v>9054619350</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -1405,7 +1353,7 @@
         <v>6474061810</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -1422,7 +1370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -1436,7 +1384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -1450,7 +1398,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -1464,7 +1412,7 @@
         <v>9054860232</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>113</v>
       </c>
@@ -1472,7 +1420,7 @@
         <v>9059131216</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>114</v>
       </c>
@@ -1480,7 +1428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>118</v>
       </c>
@@ -1488,12 +1436,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -1507,7 +1455,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1521,7 +1469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1535,7 +1483,7 @@
         <v>4169535569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1552,7 +1500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>91</v>
       </c>
@@ -1560,12 +1508,12 @@
         <v>4167233866</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1579,7 +1527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1596,7 +1544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1613,7 +1561,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1627,7 +1575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -1658,7 +1606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1675,7 +1623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1689,7 +1637,7 @@
         <v>6478227275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1703,7 +1651,7 @@
         <v>6476336597</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1720,7 +1668,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1734,7 +1682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1696,7 @@
         <v>6473626012</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -1762,7 +1710,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -1776,7 +1724,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>144</v>
       </c>
@@ -1790,7 +1738,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -1804,7 +1752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -1818,7 +1766,7 @@
         <v>6475206843</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -1832,7 +1780,7 @@
         <v>6477218251</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -1846,7 +1794,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>160</v>
       </c>
@@ -1860,7 +1808,7 @@
         <v>6478852770</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -1874,7 +1822,7 @@
         <v>6472303827</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -1888,7 +1836,7 @@
         <v>6477798466</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -1902,7 +1850,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -1914,6 +1862,17 @@
       </c>
       <c r="E62" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +1896,7 @@
     <hyperlink ref="B55" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId17"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1952,7 +1911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1969,7 +1928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
